--- a/OnBoard/output/trust/catch/Catch_Trust_69.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_69.xlsx
@@ -1884,7 +1884,7 @@
         <v>0.057</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37">
         <v>10.91945945945946</v>
@@ -1966,7 +1966,7 @@
         <v>0.014</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39">
         <v>10.91945945945946</v>
@@ -2007,7 +2007,7 @@
         <v>0.036</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40">
         <v>10.91945945945946</v>
@@ -2212,7 +2212,7 @@
         <v>1.538</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I45">
         <v>10.91945945945946</v>
@@ -2335,7 +2335,7 @@
         <v>0.97</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I48">
         <v>10.91945945945946</v>
